--- a/biology/Histoire de la zoologie et de la botanique/Dictionnaire_des_sciences_naturelles/Dictionnaire_des_sciences_naturelles.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Dictionnaire_des_sciences_naturelles/Dictionnaire_des_sciences_naturelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dictionnaire des sciences naturelles, abrégé en Dict. Sci. Nat. (ed. 2), est un ouvrage illustré publié par plusieurs savants français autour notamment de Cuvier, Lamarck et Jussieu à propos de la botanique, de la zoologie, de la minéralogie, etc. et de l'histoire naturelle. Cette encyclopédie monumentale a été éditée en 61 volumes, entre 1816 et 1845 à Paris et à Strasbourg. Son titre complet est dictionnaire des sciences naturelles dans lequel on traite méthodiquement des différens êtres de la nature, considérés soit en eux-mêmes, d'après l'état actuel de nos connoissances, soit relativement à l'utilité qu'en peuvent retirer la médecine, l'agriculture, le commerce et les arts.
 </t>
